--- a/biology/Botanique/Ray-grass_hybride/Ray-grass_hybride.xlsx
+++ b/biology/Botanique/Ray-grass_hybride/Ray-grass_hybride.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ray-grass hybride est une plante herbacée annuelle de la famille des Poacées, couramment cultivée comme plante fourragère. C'est un hybride apparu en Europe qui résulte d'un croisement Lolium multiflorum × Lolium perenne.
 Nom scientifique Lolium ×hybridum Hausskn., famille des Poaceae, sous-famille des Pooideae, tribu des Poeae.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hauteur: 0,6 à 1,2 m
 </t>
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,11 +586,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante est largement cultivée comme plante fourragère. Elle est souvent semée en association avec du trèfle violet.
-Variétés
-Il existe plus de 100 variétés de Ray grass hybride inscrites dans le Catalogue européen des espèces et variétés[1]. Environ 65 variétés de ray-grass hybride sont inscrites au Catalogue officiel français[2]
 </t>
         </is>
       </c>
@@ -600,10 +616,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe plus de 100 variétés de Ray grass hybride inscrites dans le Catalogue européen des espèces et variétés. Environ 65 variétés de ray-grass hybride sont inscrites au Catalogue officiel français
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ray-grass_hybride</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ray-grass_hybride</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
